--- a/estructurasDatosMemoria.xlsx
+++ b/estructurasDatosMemoria.xlsx
@@ -9,30 +9,75 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="cg/fMN5JyKWj57MGbdTrHo70bx9DWt/WjkWDamgxbUw="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="/5tv7oikMyepQvBCYEosQldveLLREyLN+2MrAnnRh0c="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>Representación de estructuras de datos según lo visto en teoría</t>
   </si>
   <si>
+    <t>$juego=</t>
+  </si>
+  <si>
+    <t>jugador1</t>
+  </si>
+  <si>
+    <t>aciertos1</t>
+  </si>
+  <si>
+    <t>jugador2</t>
+  </si>
+  <si>
+    <t>aciertos2</t>
+  </si>
+  <si>
+    <t>claves</t>
+  </si>
+  <si>
+    <t>Cris</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>valores</t>
+  </si>
+  <si>
+    <t>Información de la estructura:</t>
+  </si>
+  <si>
+    <t>EJEMPLO</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>Tipo: Arreglo asociativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "jugador1" =&gt; "Cris", "aciertos1" =&gt; 3, "jugador2" =&gt; "Luis", "aciertos2" =&gt; 1</t>
+  </si>
+  <si>
+    <t>Tipos de datos: Almacena valores del tipo String y Enteros</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>Representa un juego de Memoria que almacena los dos jugadores con sus respectivos aciertos</t>
+  </si>
+  <si>
     <t>indices</t>
   </si>
   <si>
     <t>$juegos =</t>
   </si>
   <si>
-    <t>valores</t>
-  </si>
-  <si>
-    <t>jugador1</t>
-  </si>
-  <si>
     <t>Mati</t>
   </si>
   <si>
@@ -42,39 +87,15 @@
     <t>Brahi</t>
   </si>
   <si>
-    <t>aciertos1</t>
-  </si>
-  <si>
-    <t>jugador2</t>
-  </si>
-  <si>
     <t>Juli</t>
   </si>
   <si>
-    <t>EJEMPLO</t>
-  </si>
-  <si>
-    <t>[</t>
-  </si>
-  <si>
-    <t>aciertos2</t>
-  </si>
-  <si>
     <t xml:space="preserve">    [ "jugador1" =&gt; "Mati", "aciertos1" =&gt; 2, "jugador2" =&gt; "Brahi", "aciertos2" =&gt; 2 ],</t>
   </si>
   <si>
     <t xml:space="preserve">    [ "jugador1" =&gt; "Sami", "aciertos1" =&gt; 3, "jugador2" =&gt; "Juli", "aciertos2" =&gt; 1 ],</t>
   </si>
   <si>
-    <t>claves</t>
-  </si>
-  <si>
-    <t>]</t>
-  </si>
-  <si>
-    <t>Información de la estructura:</t>
-  </si>
-  <si>
     <t>Tipo: Arreglo Indexado multidimensional</t>
   </si>
   <si>
@@ -106,12 +127,6 @@
   </si>
   <si>
     <t>["jugador" =&gt; "Mati", "ganados" =&gt; 7, "perdidos" =&gt; 3, "empatados" =&gt; 2, "aciertos" =&gt; 15]</t>
-  </si>
-  <si>
-    <t>Tipo: Arreglo asociativo</t>
-  </si>
-  <si>
-    <t>Tipos de datos: Almacena valores del tipo String y Enteros</t>
   </si>
   <si>
     <t>Representa un resumen de datos calculados de todos los juegos en los que ha particiapado un jugador</t>
@@ -121,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -132,6 +147,33 @@
       <sz val="11.0"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -156,17 +198,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <color rgb="FF808080"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -178,6 +209,20 @@
   </fills>
   <borders count="6">
     <border/>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -222,25 +267,11 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -248,52 +279,85 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -528,242 +592,353 @@
     </row>
     <row r="2" ht="13.5" customHeight="1"/>
     <row r="3" ht="13.5" customHeight="1"/>
-    <row r="4" ht="13.5" customHeight="1"/>
+    <row r="4" ht="13.5" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
     <row r="5" ht="13.5" customHeight="1">
-      <c r="B5" s="2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" ht="13.5" customHeight="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" ht="13.5" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" ht="13.5" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" ht="13.5" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="13.5" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" ht="13.5" customHeight="1"/>
+    <row r="12" ht="13.5" customHeight="1"/>
+    <row r="13" ht="13.5" customHeight="1"/>
+    <row r="14" ht="13.5" customHeight="1">
+      <c r="B14" s="12">
         <v>0.0</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C14" s="12">
         <v>1.0</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D14" s="12">
         <v>2.0</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E14" s="13">
         <v>3.0</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="13.5" customHeight="1">
-      <c r="A6" s="5" t="s">
+      <c r="G14" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" ht="13.5" customHeight="1">
+      <c r="A15" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="G15" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" ht="13.5" customHeight="1"/>
+    <row r="17" ht="13.5" customHeight="1">
+      <c r="A17" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="G6" s="7" t="s">
+      <c r="B17" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" ht="13.5" customHeight="1">
+      <c r="A18" s="20" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" ht="13.5" customHeight="1"/>
-    <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" s="8" t="s">
+      <c r="B18" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="C18" s="21">
+        <v>3.0</v>
+      </c>
+      <c r="D18" s="21">
+        <v>3.0</v>
+      </c>
+      <c r="E18" s="21">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="19" ht="13.5" customHeight="1">
+      <c r="A19" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B19" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" ht="13.5" customHeight="1">
+      <c r="A20" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="B20" s="23">
+        <v>2.0</v>
+      </c>
+      <c r="C20" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="D20" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="E20" s="23">
+        <v>2.0</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" ht="13.5" customHeight="1">
+      <c r="I21" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" ht="13.5" customHeight="1">
+      <c r="A22" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="C9" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="D9" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="E9" s="11">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="10" t="s">
+      <c r="B22" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="C22" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="13.5" customHeight="1"/>
+    <row r="24" ht="13.5" customHeight="1">
+      <c r="B24" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="C11" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="D11" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="E11" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" ht="13.5" customHeight="1">
-      <c r="I12" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" ht="13.5" customHeight="1"/>
-    <row r="15" ht="13.5" customHeight="1">
-      <c r="B15" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" ht="13.5" customHeight="1">
-      <c r="B16" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" ht="13.5" customHeight="1">
-      <c r="B17" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" ht="13.5" customHeight="1">
-      <c r="B18" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" ht="13.5" customHeight="1"/>
-    <row r="20" ht="13.5" customHeight="1"/>
-    <row r="21" ht="13.5" customHeight="1"/>
-    <row r="22" ht="13.5" customHeight="1">
-      <c r="A22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="10" t="s">
+    </row>
+    <row r="25" ht="13.5" customHeight="1">
+      <c r="B25" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="10" t="s">
+    </row>
+    <row r="26" ht="13.5" customHeight="1">
+      <c r="B26" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" ht="13.5" customHeight="1">
-      <c r="B23" s="17" t="s">
+    </row>
+    <row r="27" ht="13.5" customHeight="1">
+      <c r="B27" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="D23" s="18">
-        <v>2.0</v>
-      </c>
-      <c r="E23" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="F23" s="18">
-        <v>7.0</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" ht="13.5" customHeight="1"/>
-    <row r="25" ht="13.5" customHeight="1">
-      <c r="B25" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" ht="13.5" customHeight="1">
-      <c r="B26" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" ht="13.5" customHeight="1">
-      <c r="B27" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" ht="13.5" customHeight="1">
-      <c r="B28" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
+    </row>
+    <row r="28" ht="13.5" customHeight="1"/>
     <row r="29" ht="13.5" customHeight="1"/>
     <row r="30" ht="13.5" customHeight="1"/>
-    <row r="31" ht="13.5" customHeight="1"/>
-    <row r="32" ht="13.5" customHeight="1"/>
+    <row r="31" ht="13.5" customHeight="1">
+      <c r="A31" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" ht="13.5" customHeight="1">
+      <c r="B32" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="D32" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="E32" s="28">
+        <v>3.0</v>
+      </c>
+      <c r="F32" s="29">
+        <v>7.0</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="33" ht="13.5" customHeight="1"/>
-    <row r="34" ht="13.5" customHeight="1"/>
-    <row r="35" ht="13.5" customHeight="1"/>
-    <row r="36" ht="13.5" customHeight="1"/>
-    <row r="37" ht="13.5" customHeight="1"/>
+    <row r="34" ht="13.5" customHeight="1">
+      <c r="B34" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" ht="13.5" customHeight="1">
+      <c r="B35" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" ht="13.5" customHeight="1">
+      <c r="B36" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" ht="13.5" customHeight="1">
+      <c r="B37" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="38" ht="13.5" customHeight="1"/>
     <row r="39" ht="13.5" customHeight="1"/>
     <row r="40" ht="13.5" customHeight="1"/>
@@ -1727,6 +1902,15 @@
     <row r="998" ht="13.5" customHeight="1"/>
     <row r="999" ht="13.5" customHeight="1"/>
     <row r="1000" ht="13.5" customHeight="1"/>
+    <row r="1001" ht="13.5" customHeight="1"/>
+    <row r="1002" ht="13.5" customHeight="1"/>
+    <row r="1003" ht="13.5" customHeight="1"/>
+    <row r="1004" ht="13.5" customHeight="1"/>
+    <row r="1005" ht="13.5" customHeight="1"/>
+    <row r="1006" ht="13.5" customHeight="1"/>
+    <row r="1007" ht="13.5" customHeight="1"/>
+    <row r="1008" ht="13.5" customHeight="1"/>
+    <row r="1009" ht="13.5" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
